--- a/All Documents/Internship Work Flow/Ongoing Tasks - Jakia Rahman.xlsx
+++ b/All Documents/Internship Work Flow/Ongoing Tasks - Jakia Rahman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internship\SQA-Internship-Progress-in-HPL\All Documents\Internship Work Flow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ED7478-A781-4C9E-974B-82736A5F6839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5668707D-B6C1-44E2-AAE8-6147CF40C9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Task No</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Anik Vaiya</t>
-  </si>
-  <si>
     <t>Testing HPL HR (web and mobile app)</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
   </si>
   <si>
     <t>Assigned By</t>
-  </si>
-  <si>
-    <t>Najim Uddin Sir</t>
-  </si>
-  <si>
-    <t>Khaled Imam Sir</t>
   </si>
   <si>
     <t>Learning about authentication, authorization, JWT, Basic Auth, OAuth2</t>
@@ -80,13 +71,40 @@
   </si>
   <si>
     <t>Request Pulse app demo API to test in Postman</t>
+  </si>
+  <si>
+    <t>Md. Ashraful Maruf Anik</t>
+  </si>
+  <si>
+    <t>Md. Khaled Imam</t>
+  </si>
+  <si>
+    <t>Md. Najim Uddin</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>SAP Testing</t>
+  </si>
+  <si>
+    <t>HCL Landing Page Devlopment</t>
+  </si>
+  <si>
+    <t>Engr. S.M. Shahiduzzaman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +129,25 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -156,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -170,14 +207,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,27 +526,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="79.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -490,113 +558,410 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5">
+        <v>45911</v>
+      </c>
+      <c r="D4" s="5">
+        <v>45922</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5">
+        <v>45903</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45911</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45913</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45914</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45909</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45914</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45911</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45922</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45914</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45915</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C10" s="5">
+        <v>45923</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13">
+        <v>45918</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="13">
+        <v>45918</v>
+      </c>
+      <c r="D12" s="13">
+        <v>45945</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
